--- a/experiment result/64_0.2_40_zs20_kappa_lp.xlsx
+++ b/experiment result/64_0.2_40_zs20_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06901748947650639</v>
+        <v>0.009448621827734236</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.08456410735938333</v>
+        <v>0.01152299253502994</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.09727918169044204</v>
+        <v>0.0211733894515878</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06552312072628716</v>
+        <v>0.01663519050637363</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0583058120938276</v>
+        <v>0.01062148446861981</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07933036077275837</v>
+        <v>0.02218944153971402</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07319577206035154</v>
+        <v>0.006270725481260632</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06557472107414238</v>
+        <v>0.03300132080275776</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0623887348765522</v>
+        <v>0.01879401519929197</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07918196558477383</v>
+        <v>0.02236776790152417</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1139699776024855</v>
+        <v>0.04167089647523607</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1200500241334736</v>
+        <v>0.03268197253233641</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1031261199230087</v>
+        <v>0.008205765490385595</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1296892970246279</v>
+        <v>0.01067801980746155</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07727230979796616</v>
+        <v>0.02850368292197346</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.09577503967369365</v>
+        <v>0.02142249421573652</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0940467651372736</v>
+        <v>0.02078750169199237</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07649115825168264</v>
+        <v>0.00465386674978671</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05730273143673551</v>
+        <v>0.0211576442060226</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08250299397664435</v>
+        <v>0.01168547847189311</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.06715591924089877</v>
+        <v>0.009378023340561068</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.06064362839120503</v>
+        <v>0.01344374434624289</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.08267766466880391</v>
+        <v>0.0265692515009722</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05442746933923452</v>
+        <v>0.005032155876927968</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05817390458016336</v>
+        <v>0.004224771982102795</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1148983176931139</v>
+        <v>0.04201878200762115</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.06694331854565613</v>
+        <v>0.01508357526358096</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.04152692164272861</v>
+        <v>0.03088580415979064</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06331311566996266</v>
+        <v>0.01666959600679151</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.09965592533347029</v>
+        <v>0.0169054392340755</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04455475218747117</v>
+        <v>0.00162369461136848</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.06012231317276493</v>
+        <v>0.00438592405562972</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1158377843405172</v>
+        <v>0.01730716050115121</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.05119521624649702</v>
+        <v>0.003385248148451202</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.05387277358899051</v>
+        <v>0.01870314866190723</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.07836902743582073</v>
+        <v>0.01181983671019156</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.05189388804849084</v>
+        <v>0.003924255637894447</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09587081784546717</v>
+        <v>0.01809818448338894</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03862961411696045</v>
+        <v>0.018899035630201</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1042890431201973</v>
+        <v>0.01792284818968292</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.09876691120395446</v>
+        <v>0.03381904095339137</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.06330559285685947</v>
+        <v>0.01455662697736692</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04396460374515606</v>
+        <v>0.005942075243166913</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.04518409320978691</v>
+        <v>0.006957785600509509</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.05859844434961749</v>
+        <v>0.03401717041287353</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.09291552798388182</v>
+        <v>0.01787565010837409</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.08848276278656869</v>
+        <v>0.03893633573276298</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.05603503796466909</v>
+        <v>0.001546755831208402</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09149405236990615</v>
+        <v>0.01282470307385198</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.08309944575695155</v>
+        <v>0.001643601663731355</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.06737914192276202</v>
+        <v>0.01527448768909347</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06951551578703165</v>
+        <v>0.01149070936461442</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.04404761953310543</v>
+        <v>0.0001521843398900526</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.05691985670758837</v>
+        <v>0.001348696802427733</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08605279235795056</v>
+        <v>0.01298123982721714</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.07208201372578851</v>
+        <v>0.02363896801676458</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06931120047754995</v>
+        <v>0.005444809078204282</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.08169439308627355</v>
+        <v>0.01058612065958682</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1117902346583665</v>
+        <v>0.02201051426071789</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.08621549928311918</v>
+        <v>0.003433225395236389</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.03239840601549203</v>
+        <v>0.0003049336647933195</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.062022491648185</v>
+        <v>0.01740679984378896</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08100165355160885</v>
+        <v>0.01366952562069301</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.03364319154028762</v>
+        <v>0.001401166105075854</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0599654876398323</v>
+        <v>0.04139366005836422</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.08661785355110692</v>
+        <v>0.03508163868255116</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.06076314783099921</v>
+        <v>0.02236780617737127</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.06020413454588723</v>
+        <v>0.004431699469235056</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.06168466364365612</v>
+        <v>0.004005968389131726</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.05994644731116626</v>
+        <v>0.008303608533361734</v>
       </c>
     </row>
   </sheetData>
